--- a/PlayoffBracketStats.xlsx
+++ b/PlayoffBracketStats.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepos\NHLRegularSeasonStats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TylerFiles\GitHubRepos\NHLRegularSeasonStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4A7EC3-9D78-4069-BB7F-811306451C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF3C32-0943-4D48-AF50-E78097B3C1CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10260" yWindow="0" windowWidth="18540" windowHeight="15600" xr2:uid="{39CD4C64-CD4D-496C-85A9-D5FC1F9F7BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="53">
   <si>
     <t>Series 1</t>
   </si>
@@ -562,10 +562,13 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="9" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -642,6 +645,18 @@
       <c r="I2" t="s">
         <v>50</v>
       </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -671,6 +686,18 @@
       <c r="I3" t="s">
         <v>51</v>
       </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -700,6 +727,15 @@
       <c r="I4" t="s">
         <v>51</v>
       </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -729,6 +765,9 @@
       <c r="I5" t="s">
         <v>51</v>
       </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -758,6 +797,12 @@
       <c r="I6" t="s">
         <v>51</v>
       </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -787,6 +832,18 @@
       <c r="I7" t="s">
         <v>51</v>
       </c>
+      <c r="J7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -816,6 +873,9 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -845,6 +905,15 @@
       <c r="I9" t="s">
         <v>51</v>
       </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -874,6 +943,12 @@
       <c r="I10" t="s">
         <v>50</v>
       </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -903,6 +978,15 @@
       <c r="I11" t="s">
         <v>51</v>
       </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -932,6 +1016,18 @@
       <c r="I12" t="s">
         <v>50</v>
       </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -961,6 +1057,18 @@
       <c r="I13" t="s">
         <v>51</v>
       </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -990,6 +1098,15 @@
       <c r="I14" t="s">
         <v>50</v>
       </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1019,6 +1136,9 @@
       <c r="I15" t="s">
         <v>51</v>
       </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1048,8 +1168,11 @@
       <c r="I16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1077,8 +1200,17 @@
       <c r="I17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1106,8 +1238,14 @@
       <c r="I18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1135,8 +1273,17 @@
       <c r="I19" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1164,8 +1311,11 @@
       <c r="I20" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1193,8 +1343,14 @@
       <c r="I21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1222,8 +1378,17 @@
       <c r="I22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1251,8 +1416,14 @@
       <c r="I23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1281,7 +1452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>COUNTIF(B2:B23,B25)</f>
         <v>19</v>
@@ -1315,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <f>B26/$A$25</f>
         <v>0.86363636363636365</v>
@@ -1349,7 +1520,7 @@
         <v>0.31818181818181818</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1375,7 +1546,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>COUNTIF(B2:B23,B28)</f>
         <v>3</v>
@@ -1409,7 +1580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <f>B29/$A$25</f>
         <v>0.13636363636363635</v>

--- a/PlayoffBracketStats.xlsx
+++ b/PlayoffBracketStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TylerFiles\GitHubRepos\NHLRegularSeasonStats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubRepos\NHLRegularSeasonStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFF3C32-0943-4D48-AF50-E78097B3C1CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CBA9A70-756C-47C4-A0FF-915F38BECC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="0" windowWidth="18540" windowHeight="15600" xr2:uid="{39CD4C64-CD4D-496C-85A9-D5FC1F9F7BD7}"/>
+    <workbookView xWindow="28680" yWindow="-1950" windowWidth="24240" windowHeight="17640" xr2:uid="{39CD4C64-CD4D-496C-85A9-D5FC1F9F7BD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -562,12 +562,12 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="9" width="15.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
